--- a/白名单.xlsx
+++ b/白名单.xlsx
@@ -10,14 +10,14 @@
     <sheet name="观察名单" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">观察名单!$A$1:$A$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">观察名单!$A$1:$A$211</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>黄山旅游</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,54 @@
   </si>
   <si>
     <t>主营清晰，电力占主营利润98.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劣势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产负债率80%多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期降价影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恺英网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P/B 《 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三季度盈利水平回升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时处于历史低值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劣势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业不景气，虽然在缓慢恢复中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -228,13 +276,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -256,13 +307,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>474906</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>18983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -294,13 +345,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -349,89 +400,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180438</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152231</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3629025" y="342900"/>
-          <a:ext cx="4295238" cy="1352381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>532905</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8429625" y="342900"/>
-          <a:ext cx="3961905" cy="2619048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>65210</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>56950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -442,7 +417,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -463,13 +438,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>389363</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>113472</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -480,7 +455,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -501,13 +476,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>303991</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>161798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -518,7 +493,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -539,13 +514,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>256201</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>47533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -556,7 +531,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -577,13 +552,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>361048</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>57079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -594,7 +569,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -615,13 +590,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>169972</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>171257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -632,7 +607,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -653,13 +628,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>360534</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>104612</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -670,7 +645,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -691,13 +666,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>579582</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>152038</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -708,7 +683,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -729,13 +704,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>664953</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>161112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -746,7 +721,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -767,13 +742,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>284262</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>28043</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -784,7 +759,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1091,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G244"/>
+  <dimension ref="A1:K236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="G244" sqref="G244"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1105,7 +1080,7 @@
     <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1114,7 +1089,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1125,11 +1100,11 @@
         <v>42656</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="10"/>
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -1140,551 +1115,557 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="E21" s="2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D34" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E35" s="2">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
         <v>2</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B63" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C63" s="4">
         <v>300017</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D63" s="1">
         <v>42657</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B64" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+    </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B81" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121" s="3">
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="3">
         <v>3</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B104" t="s">
         <v>9</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C104" s="4">
         <v>600497</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D104" s="1">
         <v>42660</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B122" s="7" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B105" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C122" s="8"/>
-      <c r="D122" t="s">
+      <c r="C105" s="10"/>
+      <c r="D105" t="s">
         <v>10</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E105" s="2">
         <v>1</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D151" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D134" t="s">
         <v>11</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E134" s="2">
         <v>1</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F134" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E188" s="2">
+    <row r="171" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E171" s="2">
         <v>2</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F171" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E228" s="2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E211" s="2">
         <v>3</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F211" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A213" s="3">
+        <v>4</v>
+      </c>
+      <c r="B213" t="s">
+        <v>20</v>
+      </c>
+      <c r="C213" s="4">
+        <v>600333</v>
+      </c>
+      <c r="D213" s="1">
+        <v>42660</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E214" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E215" s="2">
+        <v>1</v>
+      </c>
+      <c r="F215" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A218" s="3">
+        <v>5</v>
+      </c>
+      <c r="B218" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" s="1">
+        <v>42660</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" s="5">
+        <v>1</v>
+      </c>
+      <c r="G219" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F220" s="5">
+        <v>2</v>
+      </c>
+      <c r="G220" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F221" s="5">
+        <v>3</v>
+      </c>
+      <c r="G221" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" s="5">
+        <v>1</v>
+      </c>
+      <c r="G222" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A224" s="3">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>27</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" s="1">
+        <v>43756</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E225" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F225" s="6">
+        <v>1</v>
+      </c>
+      <c r="G225" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F226" s="6">
+        <v>2</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F227" s="6">
+        <v>3</v>
+      </c>
+      <c r="G227" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E229" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F229" s="7">
+        <v>1</v>
+      </c>
+      <c r="G229" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A230" s="3">
-        <v>4</v>
-      </c>
-      <c r="B230" t="s">
-        <v>20</v>
-      </c>
-      <c r="C230" s="4">
-        <v>600333</v>
-      </c>
-      <c r="D230" s="1">
-        <v>42660</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E231" s="2" t="s">
-        <v>10</v>
+      <c r="F230" s="7">
+        <v>2</v>
+      </c>
+      <c r="G230" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E232" s="2">
+      <c r="A232" s="3">
+        <v>7</v>
+      </c>
+      <c r="B232" t="s">
+        <v>37</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D232" s="1">
+        <v>43757</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F232" s="7">
         <v>1</v>
       </c>
-      <c r="F232" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A235" s="3">
-        <v>5</v>
-      </c>
-      <c r="B235" t="s">
-        <v>21</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D235" s="1">
-        <v>42660</v>
+      <c r="G232" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F233" s="7">
+        <v>2</v>
+      </c>
+      <c r="G233" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F234" s="7">
+        <v>3</v>
+      </c>
+      <c r="G234" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E236" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F236" s="5">
+        <v>43</v>
+      </c>
+      <c r="F236" s="7">
         <v>1</v>
       </c>
       <c r="G236" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F237" s="5">
-        <v>2</v>
-      </c>
-      <c r="G237" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F238" s="5">
-        <v>3</v>
-      </c>
-      <c r="G238" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F239" s="5">
-        <v>1</v>
-      </c>
-      <c r="G239" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A241" s="3">
-        <v>6</v>
-      </c>
-      <c r="B241" t="s">
-        <v>27</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D241" s="1">
-        <v>43756</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E242" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F242" s="6">
-        <v>1</v>
-      </c>
-      <c r="G242" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F243" s="6">
-        <v>2</v>
-      </c>
-      <c r="G243" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F244" s="6">
-        <v>3</v>
-      </c>
-      <c r="G244" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A228"/>
+  <autoFilter ref="A1:A211"/>
   <mergeCells count="3">
-    <mergeCell ref="B3:C31"/>
-    <mergeCell ref="B81:D104"/>
-    <mergeCell ref="B122:C146"/>
+    <mergeCell ref="B3:C14"/>
+    <mergeCell ref="B64:D87"/>
+    <mergeCell ref="B105:C129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/白名单.xlsx
+++ b/白名单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>黄山旅游</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>行业不景气，虽然在缓慢恢复中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劣势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着燃气安装趋于饱和，在安装这块的利润逐渐下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要收入是燃气交易，属于比较平稳的行业，看不到太大的增长前景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +237,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -253,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +313,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K236"/>
+  <dimension ref="A1:L237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="G236" sqref="G236"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="K224" sqref="K224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1463,7 +1506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E211" s="2">
         <v>3</v>
       </c>
@@ -1471,192 +1514,273 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A213" s="3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A213" s="11">
         <v>4</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C213" s="4">
+      <c r="C213" s="13">
         <v>600333</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="14">
         <v>42660</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E214" s="2" t="s">
+      <c r="E213" s="15"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+      <c r="J213" s="12"/>
+      <c r="K213" s="12"/>
+      <c r="L213" s="12"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A214" s="11"/>
+      <c r="B214" s="12"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E215" s="2">
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="12"/>
+      <c r="K214" s="12"/>
+      <c r="L214" s="12"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A215" s="11"/>
+      <c r="B215" s="12"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="15">
         <v>1</v>
       </c>
-      <c r="F215" t="s">
+      <c r="G215" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A218" s="3">
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
+      <c r="J215" s="12"/>
+      <c r="K215" s="12"/>
+      <c r="L215" s="12"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A216" s="15"/>
+      <c r="B216" s="12"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+      <c r="J216" s="12"/>
+      <c r="K216" s="12"/>
+      <c r="L216" s="12"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A217" s="15"/>
+      <c r="B217" s="12"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="12">
+        <v>1</v>
+      </c>
+      <c r="G217" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+      <c r="J217" s="12"/>
+      <c r="K217" s="12"/>
+      <c r="L217" s="12"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A218" s="11"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="15"/>
+      <c r="F218" s="12">
+        <v>2</v>
+      </c>
+      <c r="G218" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="12"/>
+      <c r="K218" s="12"/>
+      <c r="L218" s="12"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A219" s="3">
         <v>5</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B219" t="s">
         <v>21</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C219" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D218" s="1">
+      <c r="D219" s="1">
         <v>42660</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E219" s="2" t="s">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E220" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F219" s="5">
+      <c r="F220" s="5">
         <v>1</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G220" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F220" s="5">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F221" s="5">
         <v>2</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G221" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F221" s="5">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F222" s="5">
         <v>3</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G222" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E222" s="2" t="s">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E223" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F222" s="5">
+      <c r="F223" s="5">
         <v>1</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G223" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A224" s="3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A225" s="3">
         <v>6</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>27</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C225" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D225" s="1">
         <v>43756</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E225" s="2" t="s">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E226" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F225" s="6">
+      <c r="F226" s="6">
         <v>1</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G226" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F226" s="6">
-        <v>2</v>
-      </c>
-      <c r="G226" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F227" s="6">
+        <v>2</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F228" s="6">
         <v>3</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G228" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E229" s="2" t="s">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E230" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F229" s="7">
+      <c r="F230" s="7">
         <v>1</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G230" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F230" s="7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F231" s="7">
         <v>2</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G231" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A232" s="3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A233" s="3">
         <v>7</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B233" t="s">
         <v>37</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C233" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D233" s="1">
         <v>43757</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E233" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F232" s="7">
+      <c r="F233" s="7">
         <v>1</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G233" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F233" s="7">
-        <v>2</v>
-      </c>
-      <c r="G233" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F234" s="7">
+        <v>2</v>
+      </c>
+      <c r="G234" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F235" s="7">
         <v>3</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G235" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E236" s="2" t="s">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E237" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F236" s="7">
+      <c r="F237" s="7">
         <v>1</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G237" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1669,6 +1793,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/白名单.xlsx
+++ b/白名单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>黔源电力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,24 @@
     <t>1. 网传前段时间360借壳概念
 2. 每股营收为负
 3. 前期高点有巨额出货，短期观察为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永清环保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.环保行业，算是朝阳行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.近期几个明显的大成交量都判断为出货
+2.最近一次运行地位在-20%位置，以观察为主
+3.PE和PB偏高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +605,7 @@
   <dimension ref="A1:H267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,8 +724,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42680</v>
+      </c>
+      <c r="D6" s="1">
+        <v>87.69</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" s="12"/>
+      <c r="H6" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G7" s="12"/>

--- a/白名单.xlsx
+++ b/白名单.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="27795" windowHeight="13110" tabRatio="505"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="27795" windowHeight="13110" tabRatio="505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="观察名单" sheetId="3" r:id="rId1"/>
+    <sheet name="持仓名单" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>黔源电力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +137,34 @@
     <t>1.近期几个明显的大成交量都判断为出货
 2.最近一次运行地位在-20%位置，以观察为主
 3.PE和PB偏高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业整体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1539,4 +1568,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/白名单.xlsx
+++ b/白名单.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="480" yWindow="210" windowWidth="27795" windowHeight="13110" tabRatio="505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="观察名单" sheetId="3" r:id="rId1"/>
-    <sheet name="持仓名单" sheetId="4" r:id="rId2"/>
+    <sheet name="观察名单old" sheetId="3" r:id="rId1"/>
+    <sheet name="观察名单" sheetId="5" r:id="rId2"/>
+    <sheet name="持仓名单" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>黔源电力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +166,34 @@
   </si>
   <si>
     <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国化学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.11月28， 有一笔成交量800万的大宗，成交价格5.89，当天收盘价6.67，折价了12%的样子
+2. 融资余额随着股价走低也在逐步下降，有一点压力的意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.除了20日均线外，其他均线多头排列
+2.国内工程收入占比75， 国外占比23， 受益于一带一路
+3.前十大股东占比合计73.59%，锁仓效应明显。 流动市值 322 × 25% ： 80亿
+4.总市值与建筑行业的巨无霸比，只占其12%的样子
+      1 601668 中国建筑 2676亿
+      2 601800 中国交建 2428亿
+      3 601390 中国中铁 2008亿
+      4 601186 中国铁建 1582亿
+      5 601669 中国电建 981亿
+5.股东人数接近历史低点
+6.16年11月22 发布了重大合同公告：
+签署了印度尼西亚芝拉扎1000MW电站工程总承包合同，合同工期  36个月，合同总金额约9亿美元，折合人民币约62.03亿元。约  占公司2015年度营业收入的9.76%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +663,7 @@
   <dimension ref="A1:H267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1572,10 +1601,2396 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H264"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="71.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2" style="14" customWidth="1"/>
+    <col min="8" max="8" width="72.75" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43756</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5">
+        <v>42729</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16.72</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="12"/>
+    </row>
+    <row r="131" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="12"/>
+    </row>
+    <row r="132" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="12"/>
+    </row>
+    <row r="133" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="1"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="12"/>
+    </row>
+    <row r="135" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="12"/>
+    </row>
+    <row r="136" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="12"/>
+    </row>
+    <row r="137" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="12"/>
+    </row>
+    <row r="138" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="12"/>
+    </row>
+    <row r="139" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="12"/>
+    </row>
+    <row r="140" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="12"/>
+    </row>
+    <row r="141" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="12"/>
+    </row>
+    <row r="142" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="12"/>
+    </row>
+    <row r="143" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="12"/>
+    </row>
+    <row r="144" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="12"/>
+    </row>
+    <row r="145" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="12"/>
+    </row>
+    <row r="146" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="12"/>
+    </row>
+    <row r="147" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="12"/>
+    </row>
+    <row r="148" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="12"/>
+    </row>
+    <row r="149" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="1"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="12"/>
+    </row>
+    <row r="150" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="12"/>
+    </row>
+    <row r="151" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="12"/>
+    </row>
+    <row r="152" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="12"/>
+    </row>
+    <row r="153" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="12"/>
+    </row>
+    <row r="154" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="12"/>
+    </row>
+    <row r="155" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="12"/>
+    </row>
+    <row r="156" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="12"/>
+    </row>
+    <row r="157" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="12"/>
+    </row>
+    <row r="158" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="1"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="12"/>
+    </row>
+    <row r="159" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="12"/>
+    </row>
+    <row r="160" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="1"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="12"/>
+    </row>
+    <row r="161" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="1"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="12"/>
+    </row>
+    <row r="162" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="12"/>
+    </row>
+    <row r="163" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="12"/>
+    </row>
+    <row r="164" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="12"/>
+    </row>
+    <row r="165" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="1"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="12"/>
+    </row>
+    <row r="166" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="12"/>
+    </row>
+    <row r="167" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="1"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="12"/>
+    </row>
+    <row r="168" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="12"/>
+    </row>
+    <row r="169" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="12"/>
+    </row>
+    <row r="170" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="1"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="12"/>
+    </row>
+    <row r="171" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="1"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="12"/>
+    </row>
+    <row r="172" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="1"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="12"/>
+    </row>
+    <row r="173" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="12"/>
+    </row>
+    <row r="174" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="12"/>
+    </row>
+    <row r="175" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="12"/>
+    </row>
+    <row r="176" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="12"/>
+    </row>
+    <row r="177" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="1"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="12"/>
+    </row>
+    <row r="178" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="1"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="12"/>
+    </row>
+    <row r="179" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="12"/>
+    </row>
+    <row r="180" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="1"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="12"/>
+    </row>
+    <row r="181" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="12"/>
+    </row>
+    <row r="182" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="1"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="12"/>
+    </row>
+    <row r="183" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="1"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="12"/>
+    </row>
+    <row r="184" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="1"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="12"/>
+    </row>
+    <row r="185" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="1"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="12"/>
+    </row>
+    <row r="186" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="1"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="12"/>
+    </row>
+    <row r="187" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="1"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="12"/>
+    </row>
+    <row r="188" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="12"/>
+    </row>
+    <row r="189" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="1"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="12"/>
+    </row>
+    <row r="190" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="12"/>
+    </row>
+    <row r="191" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="1"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="12"/>
+    </row>
+    <row r="192" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="1"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="12"/>
+    </row>
+    <row r="193" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="1"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="12"/>
+    </row>
+    <row r="194" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="12"/>
+    </row>
+    <row r="195" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="1"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="12"/>
+    </row>
+    <row r="196" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="12"/>
+    </row>
+    <row r="197" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="1"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="12"/>
+    </row>
+    <row r="198" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="1"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="12"/>
+    </row>
+    <row r="199" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="1"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="12"/>
+    </row>
+    <row r="200" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="1"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="12"/>
+    </row>
+    <row r="201" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="1"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="12"/>
+    </row>
+    <row r="202" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="1"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="12"/>
+    </row>
+    <row r="203" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="1"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="12"/>
+    </row>
+    <row r="204" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="1"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="12"/>
+    </row>
+    <row r="205" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="1"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="12"/>
+    </row>
+    <row r="206" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="1"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="12"/>
+    </row>
+    <row r="207" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="1"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="12"/>
+    </row>
+    <row r="208" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="1"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="12"/>
+    </row>
+    <row r="209" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="1"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="12"/>
+    </row>
+    <row r="210" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="1"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="12"/>
+    </row>
+    <row r="211" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="1"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="12"/>
+    </row>
+    <row r="212" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="1"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="12"/>
+    </row>
+    <row r="213" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="1"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="12"/>
+    </row>
+    <row r="214" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="1"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="12"/>
+    </row>
+    <row r="215" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="1"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="12"/>
+    </row>
+    <row r="216" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="1"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="12"/>
+    </row>
+    <row r="217" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="1"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="12"/>
+    </row>
+    <row r="218" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="1"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="12"/>
+    </row>
+    <row r="219" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="1"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="12"/>
+    </row>
+    <row r="220" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="1"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="12"/>
+    </row>
+    <row r="221" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="1"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="12"/>
+    </row>
+    <row r="222" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="1"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="12"/>
+    </row>
+    <row r="223" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="1"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="12"/>
+    </row>
+    <row r="224" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="1"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="12"/>
+    </row>
+    <row r="225" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="1"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="12"/>
+    </row>
+    <row r="226" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="1"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="12"/>
+    </row>
+    <row r="227" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="1"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="12"/>
+    </row>
+    <row r="228" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="1"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="12"/>
+    </row>
+    <row r="229" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="1"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="12"/>
+    </row>
+    <row r="230" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="1"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="12"/>
+    </row>
+    <row r="231" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="12"/>
+    </row>
+    <row r="232" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="1"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="12"/>
+    </row>
+    <row r="233" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="1"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="12"/>
+    </row>
+    <row r="234" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="1"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="12"/>
+    </row>
+    <row r="235" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="1"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="12"/>
+    </row>
+    <row r="236" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="1"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="12"/>
+    </row>
+    <row r="237" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="1"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="12"/>
+    </row>
+    <row r="238" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="1"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="12"/>
+    </row>
+    <row r="239" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="1"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="12"/>
+    </row>
+    <row r="240" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="1"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="12"/>
+    </row>
+    <row r="241" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="1"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="12"/>
+    </row>
+    <row r="242" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="1"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="12"/>
+    </row>
+    <row r="243" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="1"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="12"/>
+    </row>
+    <row r="244" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="1"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="12"/>
+    </row>
+    <row r="245" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="1"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="12"/>
+    </row>
+    <row r="246" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="1"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="12"/>
+    </row>
+    <row r="247" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="1"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="12"/>
+    </row>
+    <row r="248" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="1"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="12"/>
+    </row>
+    <row r="249" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="1"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="12"/>
+    </row>
+    <row r="250" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="1"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="12"/>
+    </row>
+    <row r="251" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="1"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="12"/>
+    </row>
+    <row r="252" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="1"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="12"/>
+    </row>
+    <row r="253" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="1"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="12"/>
+    </row>
+    <row r="254" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="1"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="12"/>
+    </row>
+    <row r="255" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="1"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="12"/>
+    </row>
+    <row r="256" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="1"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="12"/>
+    </row>
+    <row r="257" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="1"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="12"/>
+    </row>
+    <row r="258" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="1"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="12"/>
+    </row>
+    <row r="259" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="1"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="12"/>
+    </row>
+    <row r="260" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="1"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="12"/>
+    </row>
+    <row r="261" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="1"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="12"/>
+    </row>
+    <row r="262" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="1"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="12"/>
+    </row>
+    <row r="263" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="1"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="12"/>
+    </row>
+    <row r="264" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="1"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:G1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
